--- a/results/mp/logistic/corona/confidence/42/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,27 +46,27 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -85,6 +85,9 @@
     <t>oil</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
@@ -94,85 +97,88 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>better</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
-    <t>better</t>
+    <t>gt</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>gt</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>share</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>corona</t>
@@ -533,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,10 +547,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -644,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -652,13 +658,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8184931506849316</v>
+        <v>0.8116438356164384</v>
       </c>
       <c r="C4">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D4">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -670,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -694,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -702,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8157894736842105</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -720,19 +726,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,7 +758,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7567567567567568</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C6">
         <v>28</v>
@@ -770,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -794,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -802,13 +808,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.75</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -823,16 +829,16 @@
         <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8093994778067886</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>310</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>310</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -844,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,16 +879,16 @@
         <v>22</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.8224543080939948</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L8">
-        <v>315</v>
+        <v>38</v>
       </c>
       <c r="M8">
-        <v>315</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -894,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -902,13 +908,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5490196078431373</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -920,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.8181818181818182</v>
+        <v>0.8046875</v>
       </c>
       <c r="L9">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="M9">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -944,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -952,13 +958,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5396825396825397</v>
+        <v>0.5445736434108527</v>
       </c>
       <c r="C10">
-        <v>102</v>
+        <v>281</v>
       </c>
       <c r="D10">
-        <v>102</v>
+        <v>281</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -970,19 +976,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>87</v>
+        <v>235</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.80625</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L10">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="M10">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -994,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1002,13 +1008,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5251937984496124</v>
+        <v>0.5291005291005291</v>
       </c>
       <c r="C11">
-        <v>271</v>
+        <v>100</v>
       </c>
       <c r="D11">
-        <v>271</v>
+        <v>100</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1020,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>245</v>
+        <v>89</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.8018867924528302</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L11">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="M11">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1044,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,16 +1079,16 @@
         <v>74</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.796875</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L12">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="M12">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1094,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1102,13 +1108,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1120,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.7926829268292683</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L13">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1144,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1152,13 +1158,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1170,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.7872340425531915</v>
+        <v>0.78125</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1194,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1202,13 +1208,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.25</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="C15">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D15">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1220,19 +1226,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.7816901408450704</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1244,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1252,13 +1258,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1528150134048257</v>
+        <v>0.1823056300268097</v>
       </c>
       <c r="C16">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D16">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1270,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.7758620689655172</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1294,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1323,16 +1329,16 @@
         <v>272</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K17">
         <v>0.75</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1344,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1352,63 +1358,87 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.01354838709677419</v>
+        <v>0.01543498596819457</v>
       </c>
       <c r="C18">
+        <v>33</v>
+      </c>
+      <c r="D18">
+        <v>38</v>
+      </c>
+      <c r="E18">
+        <v>0.13</v>
+      </c>
+      <c r="F18">
+        <v>0.87</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>2105</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18">
+        <v>0.746031746031746</v>
+      </c>
+      <c r="L18">
+        <v>47</v>
+      </c>
+      <c r="M18">
+        <v>47</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.01353528843055108</v>
+      </c>
+      <c r="C19">
         <v>42</v>
       </c>
-      <c r="D18">
-        <v>49</v>
-      </c>
-      <c r="E18">
-        <v>0.14</v>
-      </c>
-      <c r="F18">
-        <v>0.86</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>3058</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="L18">
-        <v>26</v>
-      </c>
-      <c r="M18">
-        <v>26</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="D19">
+        <v>46</v>
+      </c>
+      <c r="E19">
+        <v>0.09</v>
+      </c>
+      <c r="F19">
+        <v>0.91</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>3061</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K19">
-        <v>0.7209302325581395</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1420,21 +1450,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>0.7142857142857143</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1446,21 +1476,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="L21">
-        <v>221</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>221</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1472,21 +1502,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>119</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>0.65</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>225</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>225</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1498,21 +1528,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>0.6169491525423729</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L23">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="M23">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1524,21 +1554,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>113</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>0.6153846153846154</v>
+        <v>0.6</v>
       </c>
       <c r="L24">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M24">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1550,21 +1580,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>0.606694560669456</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L25">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M25">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1576,47 +1606,47 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.5884353741496599</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>20</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>0.5957446808510638</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L27">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="M27">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1628,21 +1658,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28">
-        <v>0.5142857142857142</v>
+        <v>0.58</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1654,12 +1684,12 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K29">
         <v>0.4831460674157304</v>
@@ -1685,16 +1715,16 @@
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K30">
-        <v>0.3205128205128205</v>
+        <v>0.40625</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1706,33 +1736,59 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K31">
+        <v>0.3561643835616438</v>
+      </c>
+      <c r="L31">
+        <v>26</v>
+      </c>
+      <c r="M31">
+        <v>26</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32">
+        <v>0.01285669488867984</v>
+      </c>
+      <c r="L32">
+        <v>41</v>
+      </c>
+      <c r="M32">
         <v>53</v>
       </c>
-      <c r="K31">
-        <v>0.009096612296110414</v>
-      </c>
-      <c r="L31">
-        <v>29</v>
-      </c>
-      <c r="M31">
-        <v>42</v>
-      </c>
-      <c r="N31">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="O31">
-        <v>0.3100000000000001</v>
-      </c>
-      <c r="P31" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q31">
-        <v>3159</v>
+      <c r="N32">
+        <v>0.77</v>
+      </c>
+      <c r="O32">
+        <v>0.23</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>3148</v>
       </c>
     </row>
   </sheetData>
